--- a/05-Test/TS-6 til OC-7.xlsx
+++ b/05-Test/TS-6 til OC-7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jan\Git\Repos\PTECalculator2015\05-Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>e</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>UgyldigHalvhoejdeException</t>
+  </si>
+  <si>
+    <t>&lt;=0</t>
   </si>
 </sst>
 </file>
@@ -71,19 +74,10 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -94,18 +88,38 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </right>
-      <top style="thin">
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -116,10 +130,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -400,162 +414,168 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>47813.7</v>
       </c>
       <c r="B2" s="1">
-        <v>30</v>
-      </c>
-      <c r="C2" s="2">
+        <v>12.5</v>
+      </c>
+      <c r="C2" s="1">
+        <v>9628.2000000000007</v>
+      </c>
+      <c r="D2" s="5">
+        <v>62</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>20</v>
-      </c>
-      <c r="D2" s="3">
-        <v>40</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>30</v>
       </c>
-      <c r="C3" s="2">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C4" s="1">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>15</v>
+      <c r="A5" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>30</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="1">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>0</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1">
         <v>15</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1">
+      <c r="D9" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1">
         <v>15</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="1">
+      <c r="D13" s="6">
         <v>15</v>
       </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/05-Test/TS-6 til OC-7.xlsx
+++ b/05-Test/TS-6 til OC-7.xlsx
@@ -74,7 +74,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -122,11 +122,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -134,6 +143,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -417,7 +428,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,17 +469,17 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>20</v>
-      </c>
-      <c r="B3" s="1">
-        <v>30</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>5</v>
+      <c r="A3">
+        <v>28108116</v>
+      </c>
+      <c r="B3">
+        <v>80</v>
+      </c>
+      <c r="C3" s="7">
+        <v>8820833.3300000001</v>
+      </c>
+      <c r="D3" s="8">
+        <v>264.92</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -476,11 +487,11 @@
       <c r="A4" s="1">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="1">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="C4" s="1">
-        <v>15</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>5</v>
@@ -488,90 +499,100 @@
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="1">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>30</v>
       </c>
       <c r="C5" s="1">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>2</v>
-      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1">
-        <v>15</v>
-      </c>
-      <c r="D9" s="6">
-        <v>15</v>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="6"/>
+      <c r="C10" s="1">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1">
-        <v>15</v>
-      </c>
-      <c r="D13" s="6">
-        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
+      <c r="C14" s="1">
+        <v>15</v>
+      </c>
+      <c r="D14" s="6">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
